--- a/web_activity.xlsx
+++ b/web_activity.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>標題</t>
   </si>
@@ -61,37 +61,13 @@
     <t>青年敬拜夜</t>
   </si>
   <si>
-    <t>一起在敬拜中經歷神的同在
-透過音樂與禱告親近主</t>
-  </si>
-  <si>
-    <t>每週五晚上 7:00 - 9:00</t>
-  </si>
-  <si>
     <t>小組聚會</t>
   </si>
   <si>
-    <t>深度分享與代禱
-建立美好的肢體關係</t>
-  </si>
-  <si>
-    <t>每週三晚上 7:30 - 9:30</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>戶外郊遊</t>
-  </si>
-  <si>
-    <t>在大自然中讚美神
-享受神所創造的美好</t>
-  </si>
-  <si>
-    <t>8/15 週日上午 8:00 - 下午 5:00</t>
-  </si>
-  <si>
-    <t>待定（將另行通知）</t>
   </si>
 </sst>
 </file>
@@ -478,7 +454,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -534,80 +510,35 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -615,7 +546,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F2 A6:F6 A3:D3 F3 A4:D4 F4 A5:D5 F5" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F2 A6:F6 A3 A4 A5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>